--- a/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
+++ b/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bevorzugte Anreize" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:view3D>
       <c:rotX val="30"/>
@@ -174,6 +174,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
             <c:showLeaderLines val="1"/>
           </c:dLbls>
@@ -272,12 +282,22 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -285,7 +305,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -310,6 +330,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -373,12 +403,22 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.3888888888888888E-2"/>
+                  <c:x val="1.3888888888888892E-2"/>
                   <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
             </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -424,25 +464,35 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="72436352"/>
-        <c:axId val="72545024"/>
+        <c:axId val="57284480"/>
+        <c:axId val="57286016"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="72436352"/>
+        <c:axId val="57284480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72545024"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57286016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72545024"/>
+        <c:axId val="57286016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -450,7 +500,17 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72436352"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57284480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -458,12 +518,22 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -471,7 +541,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -570,25 +640,35 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="82723584"/>
-        <c:axId val="82725888"/>
+        <c:axId val="57336192"/>
+        <c:axId val="57337728"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="82723584"/>
+        <c:axId val="57336192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82725888"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57337728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82725888"/>
+        <c:axId val="57337728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -596,7 +676,17 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82723584"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57336192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -604,12 +694,22 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -617,7 +717,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:view3D>
       <c:rotX val="30"/>
@@ -631,6 +731,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
             <c:showLeaderLines val="1"/>
           </c:dLbls>
@@ -729,12 +839,22 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -742,7 +862,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -767,6 +887,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -820,6 +950,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -859,25 +999,35 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="100810752"/>
-        <c:axId val="100813056"/>
+        <c:axId val="57853824"/>
+        <c:axId val="57855360"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="100810752"/>
+        <c:axId val="57853824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100813056"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57855360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100813056"/>
+        <c:axId val="57855360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -885,20 +1035,39 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100810752"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57853824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1013,16 +1182,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1670,7 +1839,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1719,7 +1888,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
+++ b/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="bevorzugte Anreize" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Geschlechtsunterschied" sheetId="2" r:id="rId3"/>
     <sheet name="schlechte Anreize" sheetId="4" r:id="rId4"/>
     <sheet name="Anreize nach Land" sheetId="5" r:id="rId5"/>
+    <sheet name="Vorzug Mat-Immateriell" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>Coaching</t>
   </si>
@@ -111,6 +112,9 @@
   </si>
   <si>
     <t>immateriell</t>
+  </si>
+  <si>
+    <t>Materiell</t>
   </si>
 </sst>
 </file>
@@ -160,7 +164,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:view3D>
       <c:rotX val="30"/>
@@ -181,7 +185,7 @@
                 <a:pPr>
                   <a:defRPr lang="en-US"/>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showPercent val="1"/>
@@ -281,7 +285,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -289,7 +292,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -297,7 +300,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -305,7 +308,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -337,7 +340,7 @@
                 <a:pPr>
                   <a:defRPr lang="en-US"/>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showVal val="1"/>
@@ -403,7 +406,7 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.3888888888888892E-2"/>
+                  <c:x val="1.3888888888888897E-2"/>
                   <c:y val="0"/>
                 </c:manualLayout>
               </c:layout>
@@ -416,7 +419,7 @@
                 <a:pPr>
                   <a:defRPr lang="en-US"/>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showVal val="1"/>
@@ -464,12 +467,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="57284480"/>
-        <c:axId val="57286016"/>
+        <c:axId val="69411584"/>
+        <c:axId val="69413120"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="57284480"/>
+        <c:axId val="69411584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -482,17 +485,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57286016"/>
+        <c:crossAx val="69413120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57286016"/>
+        <c:axId val="69413120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -507,17 +510,16 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57284480"/>
+        <c:crossAx val="69411584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -525,7 +527,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -533,7 +535,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -541,7 +543,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -640,12 +642,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="57336192"/>
-        <c:axId val="57337728"/>
+        <c:axId val="69495808"/>
+        <c:axId val="69509888"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="57336192"/>
+        <c:axId val="69495808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,17 +660,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57337728"/>
+        <c:crossAx val="69509888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57337728"/>
+        <c:axId val="69509888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -683,17 +685,16 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57336192"/>
+        <c:crossAx val="69495808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -701,7 +702,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -709,7 +710,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -717,7 +718,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:view3D>
       <c:rotX val="30"/>
@@ -738,7 +739,7 @@
                 <a:pPr>
                   <a:defRPr lang="en-US"/>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showPercent val="1"/>
@@ -846,7 +847,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -854,7 +855,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -862,7 +863,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -894,7 +895,7 @@
                 <a:pPr>
                   <a:defRPr lang="en-US"/>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showVal val="1"/>
@@ -957,7 +958,7 @@
                 <a:pPr>
                   <a:defRPr lang="en-US"/>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showVal val="1"/>
@@ -999,12 +1000,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="57853824"/>
-        <c:axId val="57855360"/>
+        <c:axId val="69640960"/>
+        <c:axId val="69642496"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="57853824"/>
+        <c:axId val="69640960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1017,17 +1018,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57855360"/>
+        <c:crossAx val="69642496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57855360"/>
+        <c:axId val="69642496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1042,10 +1043,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57853824"/>
+        <c:crossAx val="69640960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1059,7 +1060,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1067,7 +1068,68 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Vorzug Mat-Immateriell'!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Materiell</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Immateriell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Vorzug Mat-Immateriell'!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1227,6 +1289,41 @@
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1887,7 +1984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2162,4 +2259,39 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
+++ b/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="bevorzugte Anreize" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="schlechte Anreize" sheetId="4" r:id="rId4"/>
     <sheet name="Anreize nach Land" sheetId="5" r:id="rId5"/>
     <sheet name="Vorzug Mat-Immateriell" sheetId="6" r:id="rId6"/>
+    <sheet name="ledig - verheiratet" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>Coaching</t>
   </si>
@@ -115,6 +116,12 @@
   </si>
   <si>
     <t>Materiell</t>
+  </si>
+  <si>
+    <t>ledig</t>
+  </si>
+  <si>
+    <t>verheiratet</t>
   </si>
 </sst>
 </file>
@@ -1120,6 +1127,147 @@
           </c:val>
         </c:ser>
       </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ledig - verheiratet'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>immateriell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ledig - verheiratet'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ledig</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>verheiratet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ledig - verheiratet'!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ledig - verheiratet'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>materiell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ledig - verheiratet'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ledig</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>verheiratet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ledig - verheiratet'!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="69647744"/>
+        <c:axId val="72398336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="69647744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72398336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="72398336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69647744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -1324,6 +1472,41 @@
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2265,7 +2448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -2294,4 +2477,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
+++ b/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="bevorzugte Anreize" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Anreize nach Land" sheetId="5" r:id="rId5"/>
     <sheet name="Vorzug Mat-Immateriell" sheetId="6" r:id="rId6"/>
     <sheet name="ledig - verheiratet" sheetId="7" r:id="rId7"/>
+    <sheet name="gebrauchte - bevorzugte" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>Coaching</t>
   </si>
@@ -122,6 +123,27 @@
   </si>
   <si>
     <t>verheiratet</t>
+  </si>
+  <si>
+    <t>Auslandeinsätze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newsletter </t>
+  </si>
+  <si>
+    <t>Persönliche Weiterbildung</t>
+  </si>
+  <si>
+    <t>Flexible Arbeitszeiten</t>
+  </si>
+  <si>
+    <t>Karrierenschritte</t>
+  </si>
+  <si>
+    <t>genützte</t>
+  </si>
+  <si>
+    <t>bevorzugte</t>
   </si>
 </sst>
 </file>
@@ -137,15 +159,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -153,13 +181,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -292,6 +365,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -527,6 +601,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -702,6 +777,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1060,6 +1136,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1096,31 +1173,35 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Vorzug Mat-Immateriell'!$A$2:$A$3</c:f>
+              <c:f>'Vorzug Mat-Immateriell'!$A$1:$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>Immateriell</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Materiell</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Immateriell</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Vorzug Mat-Immateriell'!$B$2:$B$3</c:f>
+              <c:f>'Vorzug Mat-Immateriell'!$B$1:$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1146,9 +1227,12 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:view3D>
+      <c:perspective val="30"/>
+    </c:view3D>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
+      <c:bar3DChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
@@ -1165,6 +1249,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'ledig - verheiratet'!$B$1:$C$1</c:f>
@@ -1209,6 +1296,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'ledig - verheiratet'!$B$1:$C$1</c:f>
@@ -1239,9 +1329,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:shape val="box"/>
         <c:axId val="69647744"/>
         <c:axId val="72398336"/>
-      </c:barChart>
+        <c:axId val="0"/>
+      </c:bar3DChart>
       <c:catAx>
         <c:axId val="69647744"/>
         <c:scaling>
@@ -1265,6 +1357,272 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="69647744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gebrauchte - bevorzugte'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>genützte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gebrauchte - bevorzugte'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gebrauchte - bevorzugte'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gebrauchte - bevorzugte'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bevorzugte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gebrauchte - bevorzugte'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gebrauchte - bevorzugte'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="74274304"/>
+        <c:axId val="74486912"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="74274304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74486912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74486912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74274304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1497,20 +1855,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2446,10 +2839,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2457,20 +2850,20 @@
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1">
+        <v>33</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2">
         <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2483,8 +2876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2527,4 +2920,177 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
+++ b/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="bevorzugte Anreize" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Vorzug Mat-Immateriell" sheetId="6" r:id="rId6"/>
     <sheet name="ledig - verheiratet" sheetId="7" r:id="rId7"/>
     <sheet name="gebrauchte - bevorzugte" sheetId="8" r:id="rId8"/>
+    <sheet name="Unternehmensgrösse" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>Coaching</t>
   </si>
@@ -144,6 +145,21 @@
   </si>
   <si>
     <t>bevorzugte</t>
+  </si>
+  <si>
+    <t>&gt;= 2000</t>
+  </si>
+  <si>
+    <t>&lt; 2000</t>
+  </si>
+  <si>
+    <t>&lt; 250</t>
+  </si>
+  <si>
+    <t>&lt; 50</t>
+  </si>
+  <si>
+    <t>&lt; 10</t>
   </si>
 </sst>
 </file>
@@ -246,6 +262,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -257,20 +276,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showPercent val="1"/>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'bevorzugte Anreize'!$A$2:$A$13</c:f>
@@ -361,21 +366,14 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -391,6 +389,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -413,19 +414,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showVal val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Alterssegment!$A$2:$A$5</c:f>
@@ -482,29 +470,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.3888888888888897E-2"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showVal val="1"/>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showVal val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Alterssegment!$A$2:$A$5</c:f>
@@ -547,6 +512,7 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls/>
         <c:shape val="box"/>
         <c:axId val="69411584"/>
         <c:axId val="69413120"/>
@@ -558,6 +524,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -583,6 +550,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -627,6 +595,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -723,6 +694,7 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls/>
         <c:shape val="box"/>
         <c:axId val="69495808"/>
         <c:axId val="69509888"/>
@@ -734,6 +706,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -759,6 +732,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -803,6 +777,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -814,20 +791,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showPercent val="1"/>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'schlechte Anreize'!$A$2:$A$13</c:f>
@@ -918,10 +881,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:txPr>
         <a:bodyPr/>
@@ -948,6 +914,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -970,19 +939,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showVal val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Anreize nach Land'!$A$2:$A$5</c:f>
@@ -1033,19 +989,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showVal val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Anreize nach Land'!$A$2:$A$5</c:f>
@@ -1082,6 +1025,7 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls/>
         <c:shape val="box"/>
         <c:axId val="69640960"/>
         <c:axId val="69642496"/>
@@ -1093,6 +1037,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1118,6 +1063,7 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1162,6 +1108,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -1173,10 +1122,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:dLbls>
-            <c:showPercent val="1"/>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Vorzug Mat-Immateriell'!$A$1:$A$2</c:f>
@@ -1207,10 +1152,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1227,8 +1175,11 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
-      <c:perspective val="30"/>
+      <c:rAngAx val="1"/>
     </c:view3D>
     <c:plotArea>
       <c:layout/>
@@ -1249,9 +1200,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:showVal val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'ledig - verheiratet'!$B$1:$C$1</c:f>
@@ -1296,9 +1244,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:dLbls>
-            <c:showVal val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'ledig - verheiratet'!$B$1:$C$1</c:f>
@@ -1329,34 +1274,37 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls/>
         <c:shape val="box"/>
-        <c:axId val="69647744"/>
-        <c:axId val="72398336"/>
+        <c:axId val="49266688"/>
+        <c:axId val="74017024"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="69647744"/>
+        <c:axId val="49266688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72398336"/>
+        <c:crossAx val="74017024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72398336"/>
+        <c:axId val="74017024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69647744"/>
+        <c:crossAx val="49266688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1379,6 +1327,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -1595,6 +1546,7 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls/>
         <c:shape val="box"/>
         <c:axId val="74274304"/>
         <c:axId val="74486912"/>
@@ -1606,6 +1558,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="74486912"/>
         <c:crosses val="autoZero"/>
@@ -1621,8 +1574,593 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="74274304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&gt;= 2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Unternehmensgrösse!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Unternehmensgrösse!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 250</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Unternehmensgrösse!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Unternehmensgrösse!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Unternehmensgrösse!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:shape val="box"/>
+        <c:axId val="84164608"/>
+        <c:axId val="84166528"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="84164608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84166528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84166528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84164608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1855,20 +2393,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1900,6 +2438,41 @@
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1257299</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2209,7 +2782,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2877,7 +3450,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2926,8 +3499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3093,4 +3666,280 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
+++ b/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>Coaching</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>&lt; 10</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -175,7 +178,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +188,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8F8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -249,6 +258,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2463,16 +2477,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1257299</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3670,10 +3684,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3681,7 +3695,7 @@
     <col min="1" max="1" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>41</v>
       </c>
@@ -3698,7 +3712,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3711,14 +3725,14 @@
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="7">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3738,7 +3752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -3754,11 +3768,11 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
@@ -3778,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -3798,27 +3812,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>12</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>4</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -3838,7 +3852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -3858,27 +3872,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>12</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>9</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>4</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -3888,17 +3902,17 @@
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <v>5</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -3908,27 +3922,27 @@
       <c r="C12">
         <v>8</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>5</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>5</v>
       </c>
       <c r="E13">
@@ -3938,8 +3952,64 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="1">
+        <f>100/33*B15</f>
+        <v>36.36363636363636</v>
+      </c>
+      <c r="C16" s="1">
+        <f>100/33*C15</f>
+        <v>27.272727272727273</v>
+      </c>
+      <c r="D16" s="1">
+        <f>100/33*D15</f>
+        <v>15.151515151515152</v>
+      </c>
+      <c r="E16" s="1">
+        <f>100/33*E15</f>
+        <v>12.121212121212121</v>
+      </c>
+      <c r="F16" s="1">
+        <f>100/33*F15</f>
+        <v>9.0909090909090899</v>
+      </c>
+      <c r="G16">
+        <f>100/33*G15</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
+++ b/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="bevorzugte Anreize" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>Coaching</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = 100%</t>
   </si>
 </sst>
 </file>
@@ -276,9 +279,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -290,6 +291,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'bevorzugte Anreize'!$A$2:$A$13</c:f>
@@ -387,13 +391,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -403,9 +406,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -526,14 +527,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="box"/>
-        <c:axId val="69411584"/>
-        <c:axId val="69413120"/>
+        <c:axId val="39345152"/>
+        <c:axId val="39355136"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="69411584"/>
+        <c:axId val="39345152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -550,14 +550,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69413120"/>
+        <c:crossAx val="39355136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69413120"/>
+        <c:axId val="39355136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,14 +576,328 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69411584"/>
+        <c:crossAx val="39345152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title/>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
       <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Geschlechtsunterschied!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frau</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Geschlechtsunterschied!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>imateriell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Geschlechtsunterschied!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Geschlechtsunterschied!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mann</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Geschlechtsunterschied!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>imateriell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Geschlechtsunterschied!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="39680640"/>
+        <c:axId val="39698816"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="39680640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39698816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39698816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39680640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'schlechte Anreize'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsatz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>flexible Arbeitszeit</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'schlechte Anreize'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -605,13 +919,11 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -625,40 +937,46 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Geschlechtsunterschied!$A$2</c:f>
+              <c:f>'Anreize nach Land'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Frau</c:v>
+                  <c:v>immateriell</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Geschlechtsunterschied!$B$1:$C$1</c:f>
+              <c:f>'Anreize nach Land'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>materiell</c:v>
-                </c:pt>
+                <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>imateriell</c:v>
+                  <c:v>Schweiz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Deutschland</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>anderes Land</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geschlechtsunterschied!$B$2:$C$2</c:f>
+              <c:f>'Anreize nach Land'!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
+                <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,53 +987,58 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Geschlechtsunterschied!$A$3</c:f>
+              <c:f>'Anreize nach Land'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mann</c:v>
+                  <c:v>materiell</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Geschlechtsunterschied!$B$1:$C$1</c:f>
+              <c:f>'Anreize nach Land'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>materiell</c:v>
-                </c:pt>
+                <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>imateriell</c:v>
+                  <c:v>Schweiz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Deutschland</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>anderes Land</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geschlechtsunterschied!$B$3:$C$3</c:f>
+              <c:f>'Anreize nach Land'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
+                <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="box"/>
-        <c:axId val="69495808"/>
-        <c:axId val="69509888"/>
+        <c:axId val="39826176"/>
+        <c:axId val="39827712"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="69495808"/>
+        <c:axId val="39826176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -732,14 +1055,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69509888"/>
+        <c:crossAx val="39827712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69509888"/>
+        <c:axId val="39827712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -758,14 +1081,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69495808"/>
+        <c:crossAx val="39826176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -787,13 +1109,11 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -805,91 +1125,34 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'schlechte Anreize'!$A$2:$A$13</c:f>
+              <c:f>'Vorzug Mat-Immateriell'!$A$1:$A$2</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Immateriell</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsatz</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>flexible Arbeitszeit</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Karrierenschritt</c:v>
+                  <c:v>Materiell</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'schlechte Anreize'!$D$2:$D$13</c:f>
+              <c:f>'Vorzug Mat-Immateriell'!$B$1:$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -902,284 +1165,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Anreize nach Land'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>immateriell</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Anreize nach Land'!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>Schweiz</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Deutschland</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>anderes Land</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Anreize nach Land'!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Anreize nach Land'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>materiell</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Anreize nach Land'!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>Schweiz</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Deutschland</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>anderes Land</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Anreize nach Land'!$C$2:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls/>
-        <c:shape val="box"/>
-        <c:axId val="69640960"/>
-        <c:axId val="69642496"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="69640960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="69642496"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="69642496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="69640960"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Vorzug Mat-Immateriell'!$A$1:$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Immateriell</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Materiell</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Vorzug Mat-Immateriell'!$B$1:$B$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showPercent val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1189,9 +1180,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -1288,28 +1277,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="box"/>
-        <c:axId val="49266688"/>
-        <c:axId val="74017024"/>
+        <c:axId val="39929344"/>
+        <c:axId val="39930880"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="49266688"/>
+        <c:axId val="39929344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74017024"/>
+        <c:crossAx val="39930880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74017024"/>
+        <c:axId val="39930880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1318,20 +1306,19 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49266688"/>
+        <c:crossAx val="39929344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1341,9 +1328,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -1560,28 +1545,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="box"/>
-        <c:axId val="74274304"/>
-        <c:axId val="74486912"/>
+        <c:axId val="39965824"/>
+        <c:axId val="39967360"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="74274304"/>
+        <c:axId val="39965824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74486912"/>
+        <c:crossAx val="39967360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74486912"/>
+        <c:axId val="39967360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1590,20 +1574,19 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74274304"/>
+        <c:crossAx val="39965824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2144,28 +2127,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="box"/>
-        <c:axId val="84164608"/>
-        <c:axId val="84166528"/>
+        <c:axId val="70107520"/>
+        <c:axId val="70109056"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="84164608"/>
+        <c:axId val="70107520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84166528"/>
+        <c:crossAx val="70109056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84166528"/>
+        <c:axId val="70109056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2174,7 +2156,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84164608"/>
+        <c:crossAx val="70107520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2187,7 +2169,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3687,7 +3669,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3977,34 +3959,34 @@
     </row>
     <row r="16" spans="1:7">
       <c r="B16" s="1">
-        <f>100/33*B15</f>
+        <f t="shared" ref="B16:G16" si="0">100/33*B15</f>
         <v>36.36363636363636</v>
       </c>
       <c r="C16" s="1">
-        <f>100/33*C15</f>
+        <f t="shared" si="0"/>
         <v>27.272727272727273</v>
       </c>
       <c r="D16" s="1">
-        <f>100/33*D15</f>
+        <f t="shared" si="0"/>
         <v>15.151515151515152</v>
       </c>
       <c r="E16" s="1">
-        <f>100/33*E15</f>
+        <f t="shared" si="0"/>
         <v>12.121212121212121</v>
       </c>
       <c r="F16" s="1">
-        <f>100/33*F15</f>
+        <f t="shared" si="0"/>
         <v>9.0909090909090899</v>
       </c>
       <c r="G16">
-        <f>100/33*G15</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="7"/>
-      <c r="C19" s="8">
-        <v>1</v>
+      <c r="C19" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
+++ b/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="bevorzugte Anreize" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -391,12 +393,596 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&gt;= 2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Unternehmensgrösse!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Unternehmensgrösse!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 250</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Unternehmensgrösse!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Unternehmensgrösse!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Unternehmensgrösse!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="105334272"/>
+        <c:axId val="105335808"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="105334272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105335808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="105335808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105334272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -406,7 +992,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -528,12 +1116,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="39345152"/>
-        <c:axId val="39355136"/>
+        <c:axId val="77259520"/>
+        <c:axId val="77446528"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="39345152"/>
+        <c:axId val="77259520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -550,14 +1138,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39355136"/>
+        <c:crossAx val="77446528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39355136"/>
+        <c:axId val="77446528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,13 +1164,335 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39345152"/>
+        <c:crossAx val="77259520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Geschlechtsunterschied!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frau</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Geschlechtsunterschied!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>imateriell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Geschlechtsunterschied!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Geschlechtsunterschied!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mann</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Geschlechtsunterschied!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>imateriell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Geschlechtsunterschied!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="box"/>
+        <c:axId val="80743040"/>
+        <c:axId val="80762368"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="80743040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80762368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80762368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80743040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'schlechte Anreize'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsatz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>flexible Arbeitszeit</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'schlechte Anreize'!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -604,11 +1514,170 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Un</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>beliebt</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'schlechte Anreize'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stimmen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'schlechte Anreize'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsatz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>flexible Arbeitszeit</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'schlechte Anreize'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -622,40 +1691,46 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Geschlechtsunterschied!$A$2</c:f>
+              <c:f>'Anreize nach Land'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Frau</c:v>
+                  <c:v>immateriell</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Geschlechtsunterschied!$B$1:$C$1</c:f>
+              <c:f>'Anreize nach Land'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>materiell</c:v>
-                </c:pt>
+                <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>imateriell</c:v>
+                  <c:v>Schweiz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Deutschland</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>anderes Land</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geschlechtsunterschied!$B$2:$C$2</c:f>
+              <c:f>'Anreize nach Land'!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
+                <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,52 +1741,58 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Geschlechtsunterschied!$A$3</c:f>
+              <c:f>'Anreize nach Land'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mann</c:v>
+                  <c:v>materiell</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Geschlechtsunterschied!$B$1:$C$1</c:f>
+              <c:f>'Anreize nach Land'!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>materiell</c:v>
-                </c:pt>
+                <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>imateriell</c:v>
+                  <c:v>Schweiz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Deutschland</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>anderes Land</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Geschlechtsunterschied!$B$3:$C$3</c:f>
+              <c:f>'Anreize nach Land'!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
+                <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="39680640"/>
-        <c:axId val="39698816"/>
+        <c:axId val="87009920"/>
+        <c:axId val="87022592"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="39680640"/>
+        <c:axId val="87009920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -728,14 +1809,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39698816"/>
+        <c:crossAx val="87022592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39698816"/>
+        <c:axId val="87022592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -754,13 +1835,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39680640"/>
+        <c:crossAx val="87009920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -782,338 +1864,13 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title/>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:plotArea>
+    <c:title>
       <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dLbls>
-            <c:showPercent val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'schlechte Anreize'!$A$2:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsatz</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>flexible Arbeitszeit</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Karrierenschritt</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'schlechte Anreize'!$D$2:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showPercent val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title/>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Anreize nach Land'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>immateriell</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Anreize nach Land'!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>Schweiz</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Deutschland</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>anderes Land</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Anreize nach Land'!$B$2:$B$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Anreize nach Land'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>materiell</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Anreize nach Land'!$A$2:$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>Schweiz</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Deutschland</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>anderes Land</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Anreize nach Land'!$C$2:$C$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="1">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:shape val="box"/>
-        <c:axId val="39826176"/>
-        <c:axId val="39827712"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="39826176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="39827712"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="39827712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="39826176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title/>
+    </c:title>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -1165,22 +1922,25 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -1278,26 +2038,26 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="39929344"/>
-        <c:axId val="39930880"/>
+        <c:axId val="96833536"/>
+        <c:axId val="97202176"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="39929344"/>
+        <c:axId val="96833536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39930880"/>
+        <c:crossAx val="97202176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39930880"/>
+        <c:axId val="97202176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,287 +2066,20 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39929344"/>
+        <c:crossAx val="96833536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title/>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'gebrauchte - bevorzugte'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>genützte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'gebrauchte - bevorzugte'!$A$2:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Karrierenschritte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'gebrauchte - bevorzugte'!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'gebrauchte - bevorzugte'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>bevorzugte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'gebrauchte - bevorzugte'!$A$2:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Karrierenschritte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'gebrauchte - bevorzugte'!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:shape val="box"/>
-        <c:axId val="39965824"/>
-        <c:axId val="39967360"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="39965824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39967360"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="39967360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39965824"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1612,18 +2105,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Unternehmensgrösse!$B$1</c:f>
+              <c:f>'gebrauchte - bevorzugte'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>&gt;= 2000</c:v>
+                  <c:v>genützte</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
+              <c:f>'gebrauchte - bevorzugte'!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1667,45 +2160,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Unternehmensgrösse!$B$2:$B$13</c:f>
+              <c:f>'gebrauchte - bevorzugte'!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1716,18 +2209,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Unternehmensgrösse!$C$1</c:f>
+              <c:f>'gebrauchte - bevorzugte'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>&lt; 2000</c:v>
+                  <c:v>bevorzugte</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
+              <c:f>'gebrauchte - bevorzugte'!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1771,383 +2264,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Unternehmensgrösse!$C$2:$C$13</c:f>
+              <c:f>'gebrauchte - bevorzugte'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Unternehmensgrösse!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>&lt; 250</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Karrierenschritte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Unternehmensgrösse!$D$2:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Unternehmensgrösse!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>&lt; 50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Karrierenschritte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Unternehmensgrösse!$E$2:$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Unternehmensgrösse!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>&lt; 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Karrierenschritte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Unternehmensgrösse!$F$2:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="70107520"/>
-        <c:axId val="70109056"/>
+        <c:axId val="97818880"/>
+        <c:axId val="98353536"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="70107520"/>
+        <c:axId val="97818880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70109056"/>
+        <c:crossAx val="98353536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70109056"/>
+        <c:axId val="98353536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,7 +2337,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70107520"/>
+        <c:crossAx val="97818880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2169,7 +2350,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2307,6 +2488,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3130,7 +3341,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3669,7 +3880,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
+++ b/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
@@ -10,7 +10,7 @@
     <sheet name="bevorzugte Anreize" sheetId="1" r:id="rId1"/>
     <sheet name="Alterssegment" sheetId="3" r:id="rId2"/>
     <sheet name="Geschlechtsunterschied" sheetId="2" r:id="rId3"/>
-    <sheet name="schlechte Anreize" sheetId="4" r:id="rId4"/>
+    <sheet name="beliebte, unbeliebte Anreize" sheetId="4" r:id="rId4"/>
     <sheet name="Anreize nach Land" sheetId="5" r:id="rId5"/>
     <sheet name="Vorzug Mat-Immateriell" sheetId="6" r:id="rId6"/>
     <sheet name="ledig - verheiratet" sheetId="7" r:id="rId7"/>
@@ -279,9 +279,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -399,7 +397,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -409,15 +407,10 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
@@ -434,6 +427,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
@@ -538,6 +534,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
@@ -642,6 +641,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
@@ -746,6 +748,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
@@ -850,6 +855,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
@@ -940,49 +948,766 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:shape val="box"/>
-        <c:axId val="105334272"/>
-        <c:axId val="105335808"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:overlap val="-25"/>
+        <c:axId val="68148608"/>
+        <c:axId val="68162688"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="105334272"/>
+        <c:axId val="68148608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105335808"/>
+        <c:crossAx val="68162688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105335808"/>
+        <c:axId val="68162688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105334272"/>
+        <c:crossAx val="68148608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Firmengrösse</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>: &gt;= 2000</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Unternehmensgrösse!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Firmengrösse: &lt; 2000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Unternehmensgrösse!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Firmengrösse: &lt; 250</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Unternehmensgrösse!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Firmengrösse: &lt; 50</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Unternehmensgrösse!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Firmengrösse: &lt; 10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Unternehmensgrösse!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -992,15 +1717,10 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
@@ -1017,6 +1737,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Alterssegment!$A$2:$A$5</c:f>
@@ -1073,6 +1796,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Alterssegment!$A$2:$A$5</c:f>
@@ -1115,13 +1841,15 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:shape val="box"/>
-        <c:axId val="77259520"/>
-        <c:axId val="77446528"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:overlap val="-25"/>
+        <c:axId val="67028480"/>
+        <c:axId val="67030016"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="77259520"/>
+        <c:axId val="67028480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,39 +1866,29 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77446528"/>
+        <c:crossAx val="67030016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77446528"/>
+        <c:axId val="67030016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="77259520"/>
+        <c:crossAx val="67028480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:txPr>
         <a:bodyPr/>
@@ -1187,7 +1905,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1197,15 +1915,10 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
@@ -1222,6 +1935,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Geschlechtsunterschied!$B$1:$C$1</c:f>
@@ -1266,6 +1982,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Geschlechtsunterschied!$B$1:$C$1</c:f>
@@ -1296,13 +2015,15 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:shape val="box"/>
-        <c:axId val="80743040"/>
-        <c:axId val="80762368"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:overlap val="-25"/>
+        <c:axId val="67629440"/>
+        <c:axId val="67630976"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="80743040"/>
+        <c:axId val="67629440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,39 +2040,29 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80762368"/>
+        <c:crossAx val="67630976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80762368"/>
+        <c:axId val="67630976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="80743040"/>
+        <c:crossAx val="67629440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:txPr>
         <a:bodyPr/>
@@ -1368,7 +2079,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1379,6 +2090,21 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Beliebt</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
     </c:title>
     <c:view3D>
@@ -1397,7 +2123,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'schlechte Anreize'!$A$2:$A$13</c:f>
+              <c:f>'beliebte, unbeliebte Anreize'!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1441,7 +2167,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'schlechte Anreize'!$D$2:$D$13</c:f>
+              <c:f>'beliebte, unbeliebte Anreize'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1508,7 +2234,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1553,7 +2279,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'schlechte Anreize'!$B$1</c:f>
+              <c:f>'beliebte, unbeliebte Anreize'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1562,9 +2288,12 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'schlechte Anreize'!$A$2:$A$13</c:f>
+              <c:f>'beliebte, unbeliebte Anreize'!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1608,7 +2337,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'schlechte Anreize'!$B$2:$B$13</c:f>
+              <c:f>'beliebte, unbeliebte Anreize'!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1665,7 +2394,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1675,15 +2404,10 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
@@ -1700,18 +2424,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Anreize nach Land'!$A$2:$A$5</c:f>
+              <c:f>'Anreize nach Land'!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Schweiz</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>Schweiz</c:v>
+                  <c:v>Deutschland</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Deutschland</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>anderes Land</c:v>
                 </c:pt>
               </c:strCache>
@@ -1719,17 +2446,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Anreize nach Land'!$B$2:$B$5</c:f>
+              <c:f>'Anreize nach Land'!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -1750,18 +2477,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Anreize nach Land'!$A$2:$A$5</c:f>
+              <c:f>'Anreize nach Land'!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Schweiz</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>Schweiz</c:v>
+                  <c:v>Deutschland</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Deutschland</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>anderes Land</c:v>
                 </c:pt>
               </c:strCache>
@@ -1769,30 +2499,32 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Anreize nach Land'!$C$2:$C$5</c:f>
+              <c:f>'Anreize nach Land'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:shape val="box"/>
-        <c:axId val="87009920"/>
-        <c:axId val="87022592"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:overlap val="-25"/>
+        <c:axId val="67767680"/>
+        <c:axId val="67769472"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="87009920"/>
+        <c:axId val="67767680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,39 +2541,29 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87022592"/>
+        <c:crossAx val="67769472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87022592"/>
+        <c:axId val="67769472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="87009920"/>
+        <c:crossAx val="67767680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:txPr>
         <a:bodyPr/>
@@ -1858,7 +2580,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1868,9 +2590,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -1928,7 +2648,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1938,15 +2658,10 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
@@ -1963,6 +2678,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'ledig - verheiratet'!$B$1:$C$1</c:f>
@@ -2007,6 +2725,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'ledig - verheiratet'!$B$1:$C$1</c:f>
@@ -2037,49 +2758,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:shape val="box"/>
-        <c:axId val="96833536"/>
-        <c:axId val="97202176"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:axId val="67874176"/>
+        <c:axId val="67875968"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="96833536"/>
+        <c:axId val="67874176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97202176"/>
+        <c:crossAx val="67875968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97202176"/>
+        <c:axId val="67875968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96833536"/>
+        <c:crossAx val="67874176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2089,15 +2811,10 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
+      <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
@@ -2114,6 +2831,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'gebrauchte - bevorzugte'!$A$2:$A$13</c:f>
@@ -2218,6 +2938,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'gebrauchte - bevorzugte'!$A$2:$A$13</c:f>
@@ -2308,49 +3031,51 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:shape val="box"/>
-        <c:axId val="97818880"/>
-        <c:axId val="98353536"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:overlap val="-25"/>
+        <c:axId val="67983616"/>
+        <c:axId val="67997696"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="97818880"/>
+        <c:axId val="67983616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98353536"/>
+        <c:crossAx val="67997696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98353536"/>
+        <c:axId val="67997696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97818880"/>
+        <c:crossAx val="67983616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2530,16 +3255,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2693,6 +3418,156 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3217,7 +4092,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3292,7 +4167,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3341,7 +4216,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3555,10 +4430,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3578,36 +4453,36 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+    </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
         <v>2</v>
       </c>
     </row>
@@ -3622,7 +4497,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3879,8 +4754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
+++ b/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="bevorzugte Anreize" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
   <si>
     <t>Coaching</t>
   </si>
@@ -167,6 +167,12 @@
   <si>
     <t xml:space="preserve"> = 100%</t>
   </si>
+  <si>
+    <t xml:space="preserve">Schweiz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deutschland </t>
+  </si>
 </sst>
 </file>
 
@@ -408,6 +414,501 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Vorzug Mat-Immateriell'!$A$1:$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Immateriell</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Materiell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Vorzug Mat-Immateriell'!$B$1:$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ledig - verheiratet'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>immateriell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ledig - verheiratet'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ledig</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>verheiratet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ledig - verheiratet'!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ledig - verheiratet'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>materiell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ledig - verheiratet'!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>ledig</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>verheiratet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ledig - verheiratet'!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:axId val="67874176"/>
+        <c:axId val="67875968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="67874176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67875968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67875968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67874176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gebrauchte - bevorzugte'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>genützte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gebrauchte - bevorzugte'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gebrauchte - bevorzugte'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gebrauchte - bevorzugte'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bevorzugte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gebrauchte - bevorzugte'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gebrauchte - bevorzugte'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:overlap val="-25"/>
+        <c:axId val="67983616"/>
+        <c:axId val="67997696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="67983616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67997696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67997696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67983616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -998,7 +1499,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1145,7 +1646,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1287,7 +1788,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1429,7 +1930,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1571,7 +2072,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2590,7 +3091,24 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Schweiz</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -2602,33 +3120,90 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:dLbls>
-            <c:showPercent val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Vorzug Mat-Immateriell'!$A$1:$A$2</c:f>
+              <c:f>'Anreize nach Land'!$A$8:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Immateriell</c:v>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Materiell</c:v>
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Vorzug Mat-Immateriell'!$B$1:$B$2</c:f>
+              <c:f>'Anreize nach Land'!$B$8:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>33</c:v>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
@@ -2648,7 +3223,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2658,140 +3233,129 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Deutschland</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ledig - verheiratet'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>immateriell</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:showVal val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'ledig - verheiratet'!$B$1:$C$1</c:f>
+              <c:f>'Anreize nach Land'!$A$8:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ledig</c:v>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>verheiratet</c:v>
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ledig - verheiratet'!$B$2:$C$2</c:f>
+              <c:f>'Anreize nach Land'!$C$8:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ledig - verheiratet'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>materiell</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:showVal val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ledig - verheiratet'!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>ledig</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>verheiratet</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ledig - verheiratet'!$B$3:$C$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>17</c:v>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:showVal val="1"/>
+          <c:showPercent val="1"/>
         </c:dLbls>
-        <c:axId val="67874176"/>
-        <c:axId val="67875968"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="67874176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67875968"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="67875968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67874176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+      </c:pie3DChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
@@ -2801,7 +3365,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2811,32 +3375,38 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>andere Länder</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'gebrauchte - bevorzugte'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>genützte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:showVal val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'gebrauchte - bevorzugte'!$A$2:$A$13</c:f>
+              <c:f>'Anreize nach Land'!$A$8:$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -2880,192 +3450,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'gebrauchte - bevorzugte'!$B$2:$B$13</c:f>
+              <c:f>'Anreize nach Land'!$D$8:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'gebrauchte - bevorzugte'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>bevorzugte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:showVal val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'gebrauchte - bevorzugte'!$A$2:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Karrierenschritte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'gebrauchte - bevorzugte'!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:showVal val="1"/>
+          <c:showPercent val="1"/>
         </c:dLbls>
-        <c:overlap val="-25"/>
-        <c:axId val="67983616"/>
-        <c:axId val="67997696"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="67983616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67997696"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="67997696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67983616"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+      </c:pie3DChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
@@ -3075,7 +3507,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3278,6 +3710,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4430,19 +4952,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -4453,7 +4977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -4464,7 +4988,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -4475,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -4484,6 +5008,185 @@
       </c>
       <c r="C4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4754,8 +5457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
+++ b/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="bevorzugte Anreize" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="ledig - verheiratet" sheetId="7" r:id="rId7"/>
     <sheet name="gebrauchte - bevorzugte" sheetId="8" r:id="rId8"/>
     <sheet name="Unternehmensgrösse" sheetId="9" r:id="rId9"/>
+    <sheet name="Wirtschaftssektor" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="52">
   <si>
     <t>Coaching</t>
   </si>
@@ -173,6 +174,12 @@
   <si>
     <t xml:space="preserve">Deutschland </t>
   </si>
+  <si>
+    <t>Industrie</t>
+  </si>
+  <si>
+    <t>Dienstleistung</t>
+  </si>
 </sst>
 </file>
 
@@ -413,6 +420,290 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Deutschland</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Anreize nach Land'!$A$8:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Anreize nach Land'!$C$8:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>andere Länder</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Anreize nach Land'!$A$8:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Anreize nach Land'!$D$8:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
       <c:rotX val="30"/>
@@ -477,7 +768,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -630,7 +921,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -904,7 +1195,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1499,7 +1790,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1646,7 +1937,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1764,290 +2055,6 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showPercent val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>Firmengrösse: &lt; 250</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Karrierenschritte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Unternehmensgrösse!$D$2:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showPercent val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>Firmengrösse: &lt; 50</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Karrierenschritte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Unternehmensgrösse!$E$2:$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2087,7 +2094,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>Firmengrösse: &lt; 10</a:t>
+              <a:t>Firmengrösse: &lt; 250</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2151,45 +2158,187 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Unternehmensgrösse!$F$2:$F$13</c:f>
+              <c:f>Unternehmensgrösse!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Firmengrösse: &lt; 50</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Unternehmensgrösse!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2407,6 +2556,585 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Firmengrösse: &lt; 10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Unternehmensgrösse!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Wirtschaftssektor!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Industrie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Wirtschaftssektor!$B$16:$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>immateriell</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>materiell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wirtschaftssektor!$B$17:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Wirtschaftssektor!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dienstleistung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Wirtschaftssektor!$B$16:$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>immateriell</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>materiell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wirtschaftssektor!$B$18:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:overlap val="-25"/>
+        <c:axId val="38256640"/>
+        <c:axId val="38258176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="38256640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38258176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="38258176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="38256640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Industrie</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Wirtschaftssektor!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wirtschaftssektor!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dienstleistung</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Wirtschaftssektor!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wirtschaftssektor!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2601,6 +3329,290 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Frau</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Geschlechtsunterschied!$A$6:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Geschlechtsunterschied!$B$6:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mann</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Geschlechtsunterschied!$A$6:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Geschlechtsunterschied!$C$6:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Beliebt</a:t>
             </a:r>
           </a:p>
@@ -2741,7 +3753,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2901,7 +3913,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3087,7 +4099,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3205,290 +4217,6 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showPercent val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Deutschland</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Anreize nach Land'!$A$8:$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Karrierenschritte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Anreize nach Land'!$C$8:$C$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showPercent val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>andere Länder</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Anreize nach Land'!$A$8:$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Karrierenschritte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Anreize nach Land'!$D$8:$D$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3548,6 +4276,101 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3587,15 +4410,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3610,6 +4433,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4609,6 +5492,197 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N31" sqref="N30:N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
@@ -4686,14 +5760,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4724,6 +5799,157 @@
         <v>16</v>
       </c>
       <c r="C3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
         <v>26</v>
       </c>
     </row>
@@ -4954,9 +6180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
+++ b/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="bevorzugte Anreize" sheetId="1" r:id="rId1"/>
@@ -5496,7 +5496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N31" sqref="N30:N31"/>
     </sheetView>
   </sheetViews>
@@ -5762,8 +5762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
+++ b/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="bevorzugte Anreize" sheetId="1" r:id="rId1"/>
     <sheet name="Alterssegment" sheetId="3" r:id="rId2"/>
     <sheet name="Geschlechtsunterschied" sheetId="2" r:id="rId3"/>
-    <sheet name="beliebte, unbeliebte Anreize" sheetId="4" r:id="rId4"/>
+    <sheet name="vermiedene, gebrauchte Anreize" sheetId="4" r:id="rId4"/>
     <sheet name="Anreize nach Land" sheetId="5" r:id="rId5"/>
     <sheet name="Vorzug Mat-Immateriell" sheetId="6" r:id="rId6"/>
     <sheet name="ledig - verheiratet" sheetId="7" r:id="rId7"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="55">
   <si>
     <t>Coaching</t>
   </si>
@@ -180,6 +180,15 @@
   <si>
     <t>Dienstleistung</t>
   </si>
+  <si>
+    <t xml:space="preserve">Negativ </t>
+  </si>
+  <si>
+    <t>Positiv</t>
+  </si>
+  <si>
+    <t>Verwendung in %</t>
+  </si>
 </sst>
 </file>
 
@@ -410,7 +419,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -449,6 +458,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Anreize nach Land'!$A$8:$A$19</c:f>
@@ -552,7 +564,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -578,7 +590,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -591,6 +602,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Anreize nach Land'!$A$8:$A$19</c:f>
@@ -688,13 +702,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -756,13 +769,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -875,25 +887,25 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="67874176"/>
-        <c:axId val="67875968"/>
+        <c:axId val="88854528"/>
+        <c:axId val="88856064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67874176"/>
+        <c:axId val="88854528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67875968"/>
+        <c:crossAx val="88856064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67875968"/>
+        <c:axId val="88856064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,20 +914,19 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67874176"/>
+        <c:crossAx val="88854528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1149,25 +1160,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="67983616"/>
-        <c:axId val="67997696"/>
+        <c:axId val="88967808"/>
+        <c:axId val="88973696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67983616"/>
+        <c:axId val="88967808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67997696"/>
+        <c:crossAx val="88973696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67997696"/>
+        <c:axId val="88973696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1176,20 +1187,19 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67983616"/>
+        <c:crossAx val="88967808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1744,25 +1754,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="68148608"/>
-        <c:axId val="68162688"/>
+        <c:axId val="89085056"/>
+        <c:axId val="89086592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68148608"/>
+        <c:axId val="89085056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68162688"/>
+        <c:crossAx val="89086592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68162688"/>
+        <c:axId val="89086592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1771,20 +1781,19 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68148608"/>
+        <c:crossAx val="89085056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1815,7 +1824,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -1828,6 +1836,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
@@ -1925,13 +1936,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1957,7 +1967,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -1970,6 +1979,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
@@ -2067,13 +2079,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2099,7 +2110,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -2112,6 +2122,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
@@ -2209,13 +2222,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2241,7 +2253,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -2254,6 +2265,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
@@ -2351,13 +2365,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2495,11 +2508,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="67028480"/>
-        <c:axId val="67030016"/>
+        <c:axId val="48050560"/>
+        <c:axId val="48052096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67028480"/>
+        <c:axId val="48050560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2516,14 +2529,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67030016"/>
+        <c:crossAx val="48052096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67030016"/>
+        <c:axId val="48052096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2532,14 +2545,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67028480"/>
+        <c:crossAx val="48050560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2555,7 +2567,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2581,7 +2593,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -2594,6 +2605,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
@@ -2691,13 +2705,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2811,25 +2824,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="38256640"/>
-        <c:axId val="38258176"/>
+        <c:axId val="90965888"/>
+        <c:axId val="90967424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38256640"/>
+        <c:axId val="90965888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38258176"/>
+        <c:crossAx val="90967424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38258176"/>
+        <c:axId val="90967424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2837,7 +2850,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38256640"/>
+        <c:crossAx val="90965888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2850,7 +2863,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2889,6 +2902,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Wirtschaftssektor!$A$2:$A$13</c:f>
@@ -2992,7 +3008,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3031,6 +3047,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Wirtschaftssektor!$A$2:$A$13</c:f>
@@ -3134,7 +3153,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3248,11 +3267,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="67629440"/>
-        <c:axId val="67630976"/>
+        <c:axId val="48139264"/>
+        <c:axId val="48149248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67629440"/>
+        <c:axId val="48139264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3269,14 +3288,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67630976"/>
+        <c:crossAx val="48149248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67630976"/>
+        <c:axId val="48149248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3285,14 +3304,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67629440"/>
+        <c:crossAx val="48139264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3308,7 +3326,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3334,7 +3352,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3347,6 +3364,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Geschlechtsunterschied!$A$6:$A$17</c:f>
@@ -3444,13 +3464,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3476,149 +3495,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Geschlechtsunterschied!$A$6:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Karrierenschritte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Geschlechtsunterschied!$C$6:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showPercent val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Beliebt</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3636,7 +3512,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'beliebte, unbeliebte Anreize'!$A$2:$A$13</c:f>
+              <c:f>Geschlechtsunterschied!$A$6:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3646,16 +3522,16 @@
                   <c:v>Mentoring</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Auslandeinsatz</c:v>
+                  <c:v>Auslandeinsätze</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Newsletter</c:v>
+                  <c:v>Newsletter </c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Thank you notes</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Weiterbildung</c:v>
+                  <c:v>Persönliche Weiterbildung</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Ruheräume</c:v>
@@ -3664,7 +3540,7 @@
                   <c:v>Kinderbetreuung</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>flexible Arbeitszeit</c:v>
+                  <c:v>Flexible Arbeitszeiten</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Reisen</c:v>
@@ -3673,52 +3549,52 @@
                   <c:v>Sabbatical</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Karrierenschritt</c:v>
+                  <c:v>Karrierenschritte</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'beliebte, unbeliebte Anreize'!$D$2:$D$13</c:f>
+              <c:f>Geschlechtsunterschied!$C$6:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3731,23 +3607,285 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vermiedene, gebrauchte Anreize'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Positiv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'vermiedene, gebrauchte Anreize'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsatz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>flexible Arbeitszeit</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'vermiedene, gebrauchte Anreize'!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vermiedene, gebrauchte Anreize'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Negativ </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'vermiedene, gebrauchte Anreize'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsatz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>flexible Arbeitszeit</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'vermiedene, gebrauchte Anreize'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:overlap val="-25"/>
+        <c:axId val="88467328"/>
+        <c:axId val="88468864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="88467328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88468864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="88468864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="88467328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3757,56 +3895,27 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Un</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>beliebt</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:view3D>
-      <c:rotX val="30"/>
-      <c:perspective val="30"/>
+      <c:rAngAx val="1"/>
     </c:view3D>
     <c:plotArea>
       <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'beliebte, unbeliebte Anreize'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stimmen</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Verwendung in %</c:v>
           </c:tx>
           <c:dLbls>
-            <c:showPercent val="1"/>
+            <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'beliebte, unbeliebte Anreize'!$A$2:$A$13</c:f>
+              <c:f>'vermiedene, gebrauchte Anreize'!$A$2:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3850,64 +3959,96 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'beliebte, unbeliebte Anreize'!$B$2:$B$13</c:f>
+              <c:f>'vermiedene, gebrauchte Anreize'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>72.72727272727272</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>66.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>45.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>21.212121212121211</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>57.575757575757578</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>96.969696969696969</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>54.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>60.606060606060609</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>96.969696969696969</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>72.72727272727272</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>87.878787878787875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6</c:v>
+                  <c:v>81.818181818181813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:showPercent val="1"/>
+          <c:showVal val="1"/>
         </c:dLbls>
-      </c:pie3DChart>
+        <c:gapWidth val="75"/>
+        <c:shape val="box"/>
+        <c:axId val="107184896"/>
+        <c:axId val="107260928"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="107184896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107260928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107260928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107184896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4033,11 +4174,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="67767680"/>
-        <c:axId val="67769472"/>
+        <c:axId val="48216320"/>
+        <c:axId val="48226304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67767680"/>
+        <c:axId val="48216320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4054,14 +4195,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67769472"/>
+        <c:crossAx val="48226304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67769472"/>
+        <c:axId val="48226304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4070,7 +4211,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67767680"/>
+        <c:crossAx val="48216320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4093,7 +4234,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4132,6 +4273,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Anreize nach Land'!$A$8:$A$19</c:f>
@@ -4235,7 +4379,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4505,20 +4649,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4536,19 +4680,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5496,7 +5640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N31" sqref="N30:N31"/>
     </sheetView>
   </sheetViews>
@@ -5961,218 +6105,227 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
+        <v>24</v>
+      </c>
+      <c r="C2">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
-        <f>100/B15*B2</f>
-        <v>27.272727272727273</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
+      <c r="D2" s="1">
+        <f>100/33*B2</f>
+        <v>72.72727272727272</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
+        <v>22</v>
+      </c>
+      <c r="C3">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
-        <f>100/B15*B3</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
+      <c r="D3" s="1">
+        <f>100/33*B3</f>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
+        <v>15</v>
+      </c>
+      <c r="C4">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
-        <f>100/B15*B4</f>
-        <v>24.242424242424242</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
+      <c r="D4" s="1">
+        <f>100/33*B4</f>
+        <v>45.454545454545453</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>26</v>
       </c>
-      <c r="C5" s="1">
-        <f>100/B15*B5</f>
-        <v>78.787878787878782</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" s="1">
+        <f>100/33*B5</f>
+        <v>21.212121212121211</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
+        <v>19</v>
+      </c>
+      <c r="C6">
         <v>14</v>
       </c>
-      <c r="C6" s="1">
-        <f>100/B15*B6</f>
-        <v>42.424242424242422</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
+      <c r="D6" s="1">
+        <f>100/33*B6</f>
+        <v>57.575757575757578</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
+        <v>32</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
-        <f>100/B15*B7</f>
-        <v>3.0303030303030303</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
+      <c r="D7" s="1">
+        <f>100/33*B7</f>
+        <v>96.969696969696969</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
+        <v>18</v>
+      </c>
+      <c r="C8">
         <v>15</v>
       </c>
-      <c r="C8" s="1">
-        <f>100/B15*B8</f>
-        <v>45.454545454545453</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
+      <c r="D8" s="1">
+        <f>100/33*B8</f>
+        <v>54.545454545454547</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
+        <v>20</v>
+      </c>
+      <c r="C9">
         <v>13</v>
       </c>
-      <c r="C9" s="1">
-        <f>100/B15*B9</f>
-        <v>39.393939393939391</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
+      <c r="D9" s="1">
+        <f>100/33*B9</f>
+        <v>60.606060606060609</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
+        <v>32</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
-        <f>100/B15*B10</f>
-        <v>3.0303030303030303</v>
-      </c>
-      <c r="D10">
-        <v>12</v>
+      <c r="D10" s="1">
+        <f>100/33*B10</f>
+        <v>96.969696969696969</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
+        <v>24</v>
+      </c>
+      <c r="C11">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
-        <f>100/B15*B11</f>
-        <v>27.272727272727273</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
+      <c r="D11" s="1">
+        <f>100/33*B11</f>
+        <v>72.72727272727272</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
+        <v>29</v>
+      </c>
+      <c r="C12">
         <v>4</v>
       </c>
-      <c r="C12" s="1">
-        <f>100/B15*B12</f>
-        <v>12.121212121212121</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
+      <c r="D12" s="1">
+        <f>100/33*B12</f>
+        <v>87.878787878787875</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
+        <v>27</v>
+      </c>
+      <c r="C13">
         <v>6</v>
       </c>
-      <c r="C13" s="1">
-        <f>100/B15*B13</f>
-        <v>18.18181818181818</v>
-      </c>
-      <c r="D13">
-        <v>9</v>
+      <c r="D13" s="1">
+        <f>100/33*B13</f>
+        <v>81.818181818181813</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="B15">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
         <v>33</v>
       </c>
+    </row>
+    <row r="1048576" spans="4:4">
+      <c r="D1048576" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
+++ b/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15480" windowHeight="8385" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="bevorzugte Anreize" sheetId="1" r:id="rId1"/>
@@ -181,13 +181,13 @@
     <t>Dienstleistung</t>
   </si>
   <si>
-    <t xml:space="preserve">Negativ </t>
+    <t>Verwendung in %</t>
   </si>
   <si>
-    <t>Positiv</t>
+    <t>Ablehnende Haltung</t>
   </si>
   <si>
-    <t>Verwendung in %</t>
+    <t>Fürsprechende Haltung</t>
   </si>
 </sst>
 </file>
@@ -299,7 +299,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -314,6 +314,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -414,12 +424,22 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -427,7 +447,7 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -436,7 +456,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -459,6 +479,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -559,12 +589,22 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -572,7 +612,7 @@
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -581,7 +621,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -603,6 +643,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -702,12 +752,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -715,7 +775,7 @@
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -730,6 +790,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -769,12 +839,23 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -782,7 +863,7 @@
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -805,6 +886,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -852,6 +943,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -887,25 +988,35 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="88854528"/>
-        <c:axId val="88856064"/>
+        <c:axId val="63191296"/>
+        <c:axId val="63201280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88854528"/>
+        <c:axId val="63191296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88856064"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63201280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88856064"/>
+        <c:axId val="63201280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,19 +1025,30 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88854528"/>
+        <c:crossAx val="63191296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -934,7 +1056,7 @@
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -957,6 +1079,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1064,6 +1196,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1160,25 +1302,35 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="88967808"/>
-        <c:axId val="88973696"/>
+        <c:axId val="63317120"/>
+        <c:axId val="63318656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88967808"/>
+        <c:axId val="63317120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88973696"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63318656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88973696"/>
+        <c:axId val="63318656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,19 +1339,29 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88967808"/>
+        <c:crossAx val="63317120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1207,7 +1369,7 @@
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1230,6 +1392,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1337,6 +1509,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1444,6 +1626,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1551,6 +1743,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1658,6 +1860,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1754,25 +1966,35 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="89085056"/>
-        <c:axId val="89086592"/>
+        <c:axId val="63528320"/>
+        <c:axId val="63538304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89085056"/>
+        <c:axId val="63528320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89086592"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63538304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89086592"/>
+        <c:axId val="63538304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1781,19 +2003,29 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89085056"/>
+        <c:crossAx val="63528320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1801,7 +2033,7 @@
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1810,7 +2042,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1837,6 +2069,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -1936,12 +2178,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1949,7 +2201,7 @@
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1958,7 +2210,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -1980,6 +2232,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2079,12 +2341,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2092,7 +2364,7 @@
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2101,7 +2373,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -2123,6 +2395,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2222,12 +2504,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2235,7 +2527,7 @@
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2244,7 +2536,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -2266,6 +2558,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2365,12 +2667,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2378,7 +2690,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2401,6 +2713,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2460,6 +2782,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2508,11 +2840,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="48050560"/>
-        <c:axId val="48052096"/>
+        <c:axId val="62356096"/>
+        <c:axId val="62361984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48050560"/>
+        <c:axId val="62356096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2526,17 +2858,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48052096"/>
+        <c:crossAx val="62361984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48052096"/>
+        <c:axId val="62361984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2545,13 +2877,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48050560"/>
+        <c:crossAx val="62356096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2559,7 +2892,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2567,7 +2900,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2575,7 +2908,7 @@
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2584,7 +2917,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
@@ -2606,6 +2939,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2705,12 +3048,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2718,7 +3071,7 @@
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -2741,6 +3094,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2788,6 +3151,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2824,25 +3197,35 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="90965888"/>
-        <c:axId val="90967424"/>
+        <c:axId val="63852928"/>
+        <c:axId val="63854464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90965888"/>
+        <c:axId val="63852928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90967424"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63854464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90967424"/>
+        <c:axId val="63854464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2850,20 +3233,29 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90965888"/>
+        <c:crossAx val="63852928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2871,7 +3263,7 @@
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2880,11 +3272,531 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Industrie</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Wirtschaftssektor!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wirtschaftssektor!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-CH"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dienstleistung</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Wirtschaftssektor!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wirtschaftssektor!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-CH"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Geschlechtsunterschied!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frau</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Geschlechtsunterschied!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>imateriell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Geschlechtsunterschied!$B$2:$C$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Geschlechtsunterschied!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mann</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Geschlechtsunterschied!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>imateriell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Geschlechtsunterschied!$B$3:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:overlap val="-25"/>
+        <c:axId val="62420480"/>
+        <c:axId val="62422016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="62420480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62422016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62422016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62420480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-CH"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Frau</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2903,11 +3815,21 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Wirtschaftssektor!$A$2:$A$13</c:f>
+              <c:f>Geschlechtsunterschied!$A$6:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -2951,45 +3873,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Wirtschaftssektor!$B$2:$B$13</c:f>
+              <c:f>Geschlechtsunterschied!$B$6:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3003,20 +3925,30 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3025,11 +3957,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Dienstleistung</a:t>
+              <a:t>Mann</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3048,11 +3980,21 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Wirtschaftssektor!$A$2:$A$13</c:f>
+              <c:f>Geschlechtsunterschied!$A$6:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -3096,45 +4038,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Wirtschaftssektor!$C$2:$C$13</c:f>
+              <c:f>Geschlechtsunterschied!$C$6:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3148,169 +4090,6 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Geschlechtsunterschied!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Frau</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:showVal val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Geschlechtsunterschied!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>imateriell</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Geschlechtsunterschied!$B$2:$C$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Geschlechtsunterschied!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mann</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:showVal val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Geschlechtsunterschied!$B$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>imateriell</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Geschlechtsunterschied!$B$3:$C$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showVal val="1"/>
-        </c:dLbls>
-        <c:overlap val="-25"/>
-        <c:axId val="48139264"/>
-        <c:axId val="48149248"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="48139264"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="48149248"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="48149248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48139264"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3318,7 +4097,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3326,293 +4105,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Frau</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dLbls>
-            <c:showPercent val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Geschlechtsunterschied!$A$6:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Karrierenschritte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Geschlechtsunterschied!$B$6:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showPercent val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Mann</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dLbls>
-            <c:showPercent val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Geschlechtsunterschied!$A$6:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Karrierenschritte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Geschlechtsunterschied!$C$6:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showPercent val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3620,7 +4113,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -3637,12 +4130,22 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Positiv</c:v>
+                  <c:v>Fürsprechende Haltung</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3744,12 +4247,22 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Negativ </c:v>
+                  <c:v>Ablehnende Haltung</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -3846,25 +4359,35 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="88467328"/>
-        <c:axId val="88468864"/>
+        <c:axId val="62565376"/>
+        <c:axId val="62567168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88467328"/>
+        <c:axId val="62565376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88468864"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62567168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88468864"/>
+        <c:axId val="62567168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3872,7 +4395,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88467328"/>
+        <c:crossAx val="62565376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3880,12 +4403,22 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3893,7 +4426,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -3911,6 +4444,16 @@
             <c:v>Verwendung in %</c:v>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -4008,26 +4551,36 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="107184896"/>
-        <c:axId val="107260928"/>
+        <c:axId val="62984960"/>
+        <c:axId val="62986496"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="107184896"/>
+        <c:axId val="62984960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107260928"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62986496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107260928"/>
+        <c:axId val="62986496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4035,7 +4588,17 @@
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107184896"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62984960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4043,12 +4606,22 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4056,7 +4629,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -4079,6 +4652,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -4132,6 +4715,16 @@
             </c:strRef>
           </c:tx>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showVal val="1"/>
           </c:dLbls>
           <c:cat>
@@ -4174,11 +4767,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="48216320"/>
-        <c:axId val="48226304"/>
+        <c:axId val="62853888"/>
+        <c:axId val="62855424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48216320"/>
+        <c:axId val="62853888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4192,17 +4785,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48226304"/>
+        <c:crossAx val="62855424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48226304"/>
+        <c:axId val="62855424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4211,7 +4804,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48216320"/>
+        <c:crossAx val="62853888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4226,7 +4819,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4234,7 +4827,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4242,7 +4835,7 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4251,7 +4844,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-US"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -4274,6 +4867,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -4374,12 +4977,22 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5413,7 +6026,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5906,7 +6519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -6107,28 +6720,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6142,7 +6755,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1">
-        <f>100/33*B2</f>
+        <f t="shared" ref="D2:D13" si="0">100/33*B2</f>
         <v>72.72727272727272</v>
       </c>
     </row>
@@ -6157,7 +6770,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <f>100/33*B3</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
     </row>
@@ -6172,7 +6785,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1">
-        <f>100/33*B4</f>
+        <f t="shared" si="0"/>
         <v>45.454545454545453</v>
       </c>
     </row>
@@ -6187,7 +6800,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="1">
-        <f>100/33*B5</f>
+        <f t="shared" si="0"/>
         <v>21.212121212121211</v>
       </c>
     </row>
@@ -6202,7 +6815,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="1">
-        <f>100/33*B6</f>
+        <f t="shared" si="0"/>
         <v>57.575757575757578</v>
       </c>
     </row>
@@ -6217,7 +6830,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <f>100/33*B7</f>
+        <f t="shared" si="0"/>
         <v>96.969696969696969</v>
       </c>
     </row>
@@ -6232,7 +6845,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="1">
-        <f>100/33*B8</f>
+        <f t="shared" si="0"/>
         <v>54.545454545454547</v>
       </c>
     </row>
@@ -6247,7 +6860,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="1">
-        <f>100/33*B9</f>
+        <f t="shared" si="0"/>
         <v>60.606060606060609</v>
       </c>
     </row>
@@ -6262,7 +6875,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <f>100/33*B10</f>
+        <f t="shared" si="0"/>
         <v>96.969696969696969</v>
       </c>
     </row>
@@ -6277,7 +6890,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <f>100/33*B11</f>
+        <f t="shared" si="0"/>
         <v>72.72727272727272</v>
       </c>
     </row>
@@ -6292,7 +6905,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="1">
-        <f>100/33*B12</f>
+        <f t="shared" si="0"/>
         <v>87.878787878787875</v>
       </c>
     </row>
@@ -6307,7 +6920,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="1">
-        <f>100/33*B13</f>
+        <f t="shared" si="0"/>
         <v>81.818181818181813</v>
       </c>
     </row>
@@ -6611,8 +7224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
+++ b/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15480" windowHeight="8385" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15480" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="bevorzugte Anreize" sheetId="1" r:id="rId1"/>
@@ -6517,10 +6517,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6529,7 +6529,7 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>18</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6547,8 +6547,12 @@
       <c r="C2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <f>SUM(B2:C2)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -6558,8 +6562,12 @@
       <c r="C3">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D3">
+        <f>SUM(B3:C3)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>16</v>
       </c>
@@ -6567,7 +6575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -6578,7 +6586,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -6589,7 +6597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -6600,7 +6608,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -6611,7 +6619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -6622,7 +6630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -6633,7 +6641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -6644,7 +6652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -6655,7 +6663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -6666,7 +6674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -6677,7 +6685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -7224,7 +7232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
+++ b/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15480" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15480" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bevorzugte Anreize" sheetId="1" r:id="rId1"/>
@@ -83,18 +83,6 @@
   </si>
   <si>
     <t>imateriell</t>
-  </si>
-  <si>
-    <t>20 - 25</t>
-  </si>
-  <si>
-    <t>26 - 35</t>
-  </si>
-  <si>
-    <t>36 - 45</t>
-  </si>
-  <si>
-    <t>46 - 55</t>
   </si>
   <si>
     <t>Alter</t>
@@ -188,6 +176,18 @@
   </si>
   <si>
     <t>Fürsprechende Haltung</t>
+  </si>
+  <si>
+    <t>20 - 25 Jahre</t>
+  </si>
+  <si>
+    <t>26 - 35 Jahre</t>
+  </si>
+  <si>
+    <t>36 - 45 Jahre</t>
+  </si>
+  <si>
+    <t>46 - 55 Jahre</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -439,7 +438,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -465,7 +464,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -588,7 +586,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -604,7 +601,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -767,7 +764,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -839,7 +836,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -855,7 +851,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -988,11 +984,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="63191296"/>
-        <c:axId val="63201280"/>
+        <c:axId val="63864192"/>
+        <c:axId val="63874176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63191296"/>
+        <c:axId val="63864192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1009,14 +1005,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63201280"/>
+        <c:crossAx val="63874176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63201280"/>
+        <c:axId val="63874176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,14 +1021,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63191296"/>
+        <c:crossAx val="63864192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1048,7 +1043,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1302,11 +1297,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="63317120"/>
-        <c:axId val="63318656"/>
+        <c:axId val="63994112"/>
+        <c:axId val="64008192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63317120"/>
+        <c:axId val="63994112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1323,14 +1318,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63318656"/>
+        <c:crossAx val="64008192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63318656"/>
+        <c:axId val="64008192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,7 +1334,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63317120"/>
+        <c:crossAx val="63994112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1361,7 +1356,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1966,11 +1961,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="63528320"/>
-        <c:axId val="63538304"/>
+        <c:axId val="64156416"/>
+        <c:axId val="64157952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63528320"/>
+        <c:axId val="64156416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1987,14 +1982,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63538304"/>
+        <c:crossAx val="64157952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63538304"/>
+        <c:axId val="64157952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2003,7 +1998,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63528320"/>
+        <c:crossAx val="64156416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2025,7 +2020,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2193,7 +2188,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2356,7 +2351,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2519,7 +2514,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2682,7 +2677,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2731,16 +2726,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20 - 25</c:v>
+                  <c:v>20 - 25 Jahre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26 - 35</c:v>
+                  <c:v>26 - 35 Jahre</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36 - 45</c:v>
+                  <c:v>36 - 45 Jahre</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46 - 55</c:v>
+                  <c:v>46 - 55 Jahre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2800,16 +2795,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20 - 25</c:v>
+                  <c:v>20 - 25 Jahre</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26 - 35</c:v>
+                  <c:v>26 - 35 Jahre</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36 - 45</c:v>
+                  <c:v>36 - 45 Jahre</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46 - 55</c:v>
+                  <c:v>46 - 55 Jahre</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2840,11 +2835,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="62356096"/>
-        <c:axId val="62361984"/>
+        <c:axId val="62814848"/>
+        <c:axId val="62820736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62356096"/>
+        <c:axId val="62814848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2861,14 +2856,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62361984"/>
+        <c:crossAx val="62820736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62361984"/>
+        <c:axId val="62820736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2877,7 +2872,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62356096"/>
+        <c:crossAx val="62814848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2900,7 +2895,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3063,7 +3058,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3197,11 +3192,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="63852928"/>
-        <c:axId val="63854464"/>
+        <c:axId val="64448000"/>
+        <c:axId val="64449536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63852928"/>
+        <c:axId val="64448000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3218,14 +3213,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63854464"/>
+        <c:crossAx val="64449536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63854464"/>
+        <c:axId val="64449536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3233,7 +3228,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63852928"/>
+        <c:crossAx val="64448000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3255,7 +3250,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3418,7 +3413,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3581,7 +3576,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3715,11 +3710,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="62420480"/>
-        <c:axId val="62422016"/>
+        <c:axId val="63079936"/>
+        <c:axId val="63081472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62420480"/>
+        <c:axId val="63079936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3736,14 +3731,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62422016"/>
+        <c:crossAx val="63081472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62422016"/>
+        <c:axId val="63081472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3752,7 +3747,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62420480"/>
+        <c:crossAx val="63079936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3775,7 +3770,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3940,7 +3935,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4105,7 +4100,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4359,11 +4354,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="62565376"/>
-        <c:axId val="62567168"/>
+        <c:axId val="63242624"/>
+        <c:axId val="63244160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62565376"/>
+        <c:axId val="63242624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4380,14 +4375,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62567168"/>
+        <c:crossAx val="63244160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62567168"/>
+        <c:axId val="63244160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4395,14 +4390,13 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62565376"/>
+        <c:crossAx val="63242624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4418,7 +4412,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4551,12 +4545,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:shape val="box"/>
-        <c:axId val="62984960"/>
-        <c:axId val="62986496"/>
+        <c:axId val="63268736"/>
+        <c:axId val="63270272"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="62984960"/>
+        <c:axId val="63268736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4573,14 +4567,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62986496"/>
+        <c:crossAx val="63270272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62986496"/>
+        <c:axId val="63270272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4598,14 +4592,13 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62984960"/>
+        <c:crossAx val="63268736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4621,7 +4614,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4767,11 +4760,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="62853888"/>
-        <c:axId val="62855424"/>
+        <c:axId val="63648512"/>
+        <c:axId val="63650048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62853888"/>
+        <c:axId val="63648512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4788,14 +4781,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62855424"/>
+        <c:crossAx val="63650048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62855424"/>
+        <c:axId val="63650048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4804,14 +4797,13 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62853888"/>
+        <c:crossAx val="63648512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4827,7 +4819,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4853,7 +4845,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -4976,7 +4967,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4992,7 +4982,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6266,10 +6256,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6296,7 +6286,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6307,7 +6297,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -6329,7 +6319,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -6362,7 +6352,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -6395,7 +6385,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -6406,7 +6396,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -6414,7 +6404,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -6425,7 +6415,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>28</v>
@@ -6444,22 +6434,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -6467,7 +6458,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -6478,7 +6469,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>23</v>
@@ -6489,7 +6480,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -6500,7 +6491,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6519,8 +6510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6599,7 +6590,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -6610,7 +6601,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -6632,7 +6623,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -6665,7 +6656,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -6698,7 +6689,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -6709,7 +6700,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -6743,13 +6734,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6934,7 +6925,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C15">
         <v>33</v>
@@ -6966,10 +6957,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
@@ -6977,7 +6968,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>27</v>
@@ -6988,7 +6979,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -6999,7 +6990,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7010,13 +7001,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7049,7 +7040,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>22</v>
@@ -7063,7 +7054,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -7091,7 +7082,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>26</v>
@@ -7133,7 +7124,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>26</v>
@@ -7175,7 +7166,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>23</v>
@@ -7208,7 +7199,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B1">
         <v>33</v>
@@ -7216,7 +7207,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B2">
         <v>23</v>
@@ -7244,15 +7235,15 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>24</v>
@@ -7294,10 +7285,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7327,7 +7318,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2">
         <v>12</v>
@@ -7339,7 +7330,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2">
         <v>7</v>
@@ -7363,7 +7354,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2">
         <v>25</v>
@@ -7399,7 +7390,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2">
         <v>25</v>
@@ -7435,7 +7426,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2">
         <v>14</v>
@@ -7466,19 +7457,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7523,7 +7514,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -7543,7 +7534,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7583,7 +7574,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" s="7">
         <v>12</v>
@@ -7643,7 +7634,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="7">
         <v>12</v>
@@ -7703,7 +7694,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -7723,7 +7714,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -7773,7 +7764,7 @@
     <row r="19" spans="2:3">
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
+++ b/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15480" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15480" windowHeight="8385" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="bevorzugte Anreize" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="57">
   <si>
     <t>Coaching</t>
   </si>
@@ -189,6 +189,12 @@
   <si>
     <t>46 - 55 Jahre</t>
   </si>
+  <si>
+    <t>Immaterielle Anreize</t>
+  </si>
+  <si>
+    <t>Materielle Anreize</t>
+  </si>
 </sst>
 </file>
 
@@ -438,7 +444,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -601,7 +607,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -764,7 +770,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -851,7 +857,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -984,11 +990,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="63864192"/>
+        <c:axId val="63860096"/>
         <c:axId val="63874176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63864192"/>
+        <c:axId val="63860096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,7 +1027,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63864192"/>
+        <c:crossAx val="63860096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1043,7 +1049,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1356,7 +1362,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2020,7 +2026,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2188,7 +2194,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2351,7 +2357,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2514,7 +2520,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2677,7 +2683,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2895,7 +2901,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3058,7 +3064,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3107,10 +3113,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>immateriell</c:v>
+                  <c:v>Immaterielle Anreize</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>materiell</c:v>
+                  <c:v>Materielle Anreize</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3164,10 +3170,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>immateriell</c:v>
+                  <c:v>Immaterielle Anreize</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>materiell</c:v>
+                  <c:v>Materielle Anreize</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3235,6 +3241,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3250,7 +3257,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3276,6 +3283,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3398,6 +3406,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3413,7 +3422,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3439,6 +3448,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3561,6 +3571,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3576,7 +3587,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3754,7 +3765,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3770,7 +3780,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3796,7 +3806,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3919,7 +3928,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3935,7 +3943,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3961,7 +3969,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -4084,7 +4091,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4100,7 +4106,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4412,7 +4418,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4614,7 +4620,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4819,7 +4825,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4982,7 +4988,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5027,16 +5033,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5060,13 +5066,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5087,16 +5093,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6243,15 +6249,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N31" sqref="N30:N31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6396,10 +6403,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6434,7 +6441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>

--- a/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
+++ b/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15480" windowHeight="8385" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15480" windowHeight="8385" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="bevorzugte Anreize" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Deutschland</t>
-  </si>
-  <si>
-    <t>anderes Land</t>
   </si>
   <si>
     <t xml:space="preserve">Land </t>
@@ -194,6 +191,9 @@
   </si>
   <si>
     <t>Materielle Anreize</t>
+  </si>
+  <si>
+    <t>Anderes Land</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -470,6 +470,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -592,6 +593,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -607,7 +609,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -633,6 +635,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -755,6 +758,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -770,7 +774,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -857,7 +861,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -990,11 +994,11 @@
         <c:dLbls>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="63860096"/>
+        <c:axId val="63864192"/>
         <c:axId val="63874176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63860096"/>
+        <c:axId val="63864192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1027,7 +1031,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63860096"/>
+        <c:crossAx val="63864192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1049,7 +1053,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1362,7 +1366,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2026,7 +2030,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2194,7 +2198,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2357,7 +2361,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2520,7 +2524,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2683,7 +2687,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2885,7 +2889,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2901,7 +2904,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3064,7 +3067,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3198,11 +3201,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="64448000"/>
-        <c:axId val="64449536"/>
+        <c:axId val="64452096"/>
+        <c:axId val="64453632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64448000"/>
+        <c:axId val="64452096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3219,14 +3222,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64449536"/>
+        <c:crossAx val="64453632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64449536"/>
+        <c:axId val="64453632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3234,7 +3237,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64448000"/>
+        <c:crossAx val="64452096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3257,7 +3260,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3422,7 +3425,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3587,7 +3590,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3780,7 +3783,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3943,7 +3946,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4106,7 +4109,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4418,7 +4421,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4620,7 +4623,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4645,7 +4648,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>immateriell</c:v>
+                  <c:v>Immaterielle Anreize</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4675,7 +4678,7 @@
                   <c:v>Deutschland</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>anderes Land</c:v>
+                  <c:v>Anderes Land</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4708,7 +4711,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>materiell</c:v>
+                  <c:v>Materielle Anreize</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4738,7 +4741,7 @@
                   <c:v>Deutschland</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>anderes Land</c:v>
+                  <c:v>Anderes Land</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4766,11 +4769,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="63648512"/>
-        <c:axId val="63650048"/>
+        <c:axId val="63644416"/>
+        <c:axId val="63645952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63648512"/>
+        <c:axId val="63644416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4787,14 +4790,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63650048"/>
+        <c:crossAx val="63645952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63650048"/>
+        <c:axId val="63645952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4803,13 +4806,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63648512"/>
+        <c:crossAx val="63644416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4825,7 +4829,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4851,6 +4855,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -4973,6 +4978,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4988,7 +4994,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5359,10 +5365,10 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5384,15 +5390,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>295276</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6249,8 +6255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6263,10 +6269,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6293,7 +6299,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6304,7 +6310,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -6326,7 +6332,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -6359,7 +6365,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -6392,7 +6398,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -6403,15 +6409,15 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
         <v>55</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -6422,7 +6428,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18">
         <v>28</v>
@@ -6465,7 +6471,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -6476,7 +6482,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>23</v>
@@ -6487,7 +6493,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -6498,7 +6504,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6597,7 +6603,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -6608,7 +6614,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -6630,7 +6636,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -6663,7 +6669,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -6696,7 +6702,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -6707,7 +6713,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -6741,13 +6747,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6932,7 +6938,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>33</v>
@@ -6952,25 +6958,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6997,7 +7005,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7008,13 +7016,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7047,7 +7055,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>22</v>
@@ -7061,7 +7069,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>7</v>
@@ -7089,7 +7097,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>26</v>
@@ -7131,7 +7139,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>26</v>
@@ -7173,7 +7181,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>23</v>
@@ -7214,7 +7222,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>23</v>
@@ -7242,15 +7250,15 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>24</v>
@@ -7292,10 +7300,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7325,7 +7333,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2">
         <v>12</v>
@@ -7337,7 +7345,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2">
         <v>7</v>
@@ -7361,7 +7369,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2">
         <v>25</v>
@@ -7397,7 +7405,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2">
         <v>25</v>
@@ -7433,7 +7441,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2">
         <v>14</v>
@@ -7464,19 +7472,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7521,7 +7529,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -7541,7 +7549,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7581,7 +7589,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="7">
         <v>12</v>
@@ -7641,7 +7649,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="7">
         <v>12</v>
@@ -7701,7 +7709,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -7721,7 +7729,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -7771,7 +7779,7 @@
     <row r="19" spans="2:3">
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
+++ b/trunk/study/auswertung/auswertung mitarbeiter_teilnehmer 56.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15480" windowHeight="8385" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15480" windowHeight="8385" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="bevorzugte Anreize" sheetId="1" r:id="rId1"/>
@@ -127,12 +127,6 @@
     <t>Karrierenschritte</t>
   </si>
   <si>
-    <t>genützte</t>
-  </si>
-  <si>
-    <t>bevorzugte</t>
-  </si>
-  <si>
     <t>&gt;= 2000</t>
   </si>
   <si>
@@ -194,6 +188,12 @@
   </si>
   <si>
     <t>Anderes Land</t>
+  </si>
+  <si>
+    <t>Von MA genutzte Anreize</t>
+  </si>
+  <si>
+    <t>Von MA bevorzugte Anreize</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -470,7 +470,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -593,7 +592,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -609,7 +607,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -635,7 +633,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -758,7 +755,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -774,7 +770,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -861,7 +857,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1053,7 +1049,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1078,7 +1074,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>genützte</c:v>
+                  <c:v>Von MA genutzte Anreize</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1195,7 +1191,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bevorzugte</c:v>
+                  <c:v>Von MA bevorzugte Anreize</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1351,6 +1347,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1366,13 +1363,146 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-CH"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'gebrauchte - bevorzugte'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Von MA bevorzugte Anreize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:explosion val="25"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'gebrauchte - bevorzugte'!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'gebrauchte - bevorzugte'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showCatName val="1"/>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-CH"/>
   <c:chart>
@@ -2015,6 +2145,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2030,13 +2161,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-CH"/>
   <c:chart>
@@ -2061,6 +2192,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -2183,6 +2315,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2198,13 +2331,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-CH"/>
   <c:chart>
@@ -2224,6 +2357,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -2346,6 +2480,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2361,13 +2496,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-CH"/>
   <c:chart>
@@ -2524,170 +2659,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>Firmengrösse: &lt; 50</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:showPercent val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Karrierenschritte</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Unternehmensgrösse!$E$2:$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showPercent val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2904,13 +2876,176 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-CH"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Firmengrösse: &lt; 50</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Unternehmensgrösse!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Karrierenschritte</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Unternehmensgrösse!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-CH"/>
   <c:chart>
@@ -3067,13 +3202,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-CH"/>
   <c:chart>
@@ -3201,11 +3336,11 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="64452096"/>
-        <c:axId val="64453632"/>
+        <c:axId val="64443904"/>
+        <c:axId val="64445440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64452096"/>
+        <c:axId val="64443904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3222,14 +3357,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64453632"/>
+        <c:crossAx val="64445440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64453632"/>
+        <c:axId val="64445440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3237,14 +3372,13 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64452096"/>
+        <c:crossAx val="64443904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3260,13 +3394,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-CH"/>
   <c:chart>
@@ -3286,7 +3420,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3409,7 +3542,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3425,13 +3557,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-CH"/>
   <c:chart>
@@ -3451,7 +3583,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -3574,7 +3705,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3590,7 +3720,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3783,7 +3913,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3946,7 +4076,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4109,7 +4239,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4421,7 +4551,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4623,7 +4753,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4813,7 +4943,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4829,7 +4958,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4855,7 +4984,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -4978,7 +5106,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -4994,7 +5121,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5552,6 +5679,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6269,10 +6426,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6409,15 +6566,15 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -6428,7 +6585,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18">
         <v>28</v>
@@ -6471,7 +6628,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -6482,7 +6639,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>23</v>
@@ -6493,7 +6650,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -6504,7 +6661,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6713,7 +6870,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>7</v>
@@ -6747,13 +6904,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6938,7 +7095,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15">
         <v>33</v>
@@ -6958,8 +7115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6975,10 +7132,10 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7005,7 +7162,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7016,13 +7173,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7288,22 +7445,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C1" activeCellId="1" sqref="A1:A13 C1:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7461,8 +7619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7472,19 +7630,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7729,7 +7887,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -7779,7 +7937,7 @@
     <row r="19" spans="2:3">
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
